--- a/records.xlsx
+++ b/records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,537 +620,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ICC</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Surda</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>New Project2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Contractor1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2024-09-03</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2024-09-25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>started</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ICC</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Surda</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Surda Project</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Surda Contractor</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024-09-02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-09-26</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>89</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2024-09-04</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>started</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Under Ground Drilling</t>
-        </is>
-      </c>
-      <c r="AI3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>KCC</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Kolihan</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>NQ size Core Drilling and assoicated geological activities in Kendadih(Phase II)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>M/s MECL, Nagpur</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2024-09-04</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2024-09-12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2024-09-10</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>running</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Surface Drilling</t>
-        </is>
-      </c>
-      <c r="AI4" t="n">
-        <v>988888</v>
-      </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ICC</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Surda</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>NQ size Core Drilling and assoicated geological activities in Surda</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ABC contractor</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2024-09-10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2024-09-24</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2024-09-10</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>running</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Surface Drilling</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>2024-09-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MCP</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Malanjkhand</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>AX size Definition Diamond Core Drilling and assoicated geological activities in Khetri Block</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2024-09-11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2024-09-13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2024-09-11</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>Working</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Surface Drilling</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>2024-09-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MCP</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Malanjkhand</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>AX size Definition Diamond Core Drilling and assoicated geological activities in Khetri Block</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2024-09-10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2024-09-25</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>running</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>2024-09-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ICC</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Kendadih</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>efrw</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>erewr</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2024-09-19</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2024-09-21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>ewrewr</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>user1</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>2024-09-10</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/records.xlsx
+++ b/records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK1"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,6 +620,53 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>user1</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/records.xlsx
+++ b/records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,6 +667,53 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>user1</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
